--- a/normal_inv.xlsx
+++ b/normal_inv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18421\source\repos\hw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81D8F077-4960-46B4-A760-EE965C36414F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B9BFD4-D0B7-4CA5-ABB2-047707107B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8690C4C2-59F2-4BEA-822C-12FFA60F882D}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/normal_inv.xlsx
+++ b/normal_inv.xlsx
@@ -8,18 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmc97\source\repos\hw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2A3C6-D532-478C-8031-D447DE5575CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A17ECD-2B1A-43D5-A378-8D1378271789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79819A1A-89A8-4A50-A451-4B62C3D46422}"/>
+    <workbookView xWindow="0" yWindow="3252" windowWidth="17280" windowHeight="9108" activeTab="1" xr2:uid="{79819A1A-89A8-4A50-A451-4B62C3D46422}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="alpha">Sheet1!$F$1</definedName>
+    <definedName name="d_1">Sheet2!$G$9</definedName>
+    <definedName name="d_2">Sheet2!$G$8</definedName>
+    <definedName name="d1_">Sheet2!$G$9</definedName>
+    <definedName name="d2_">Sheet2!$G$8</definedName>
+    <definedName name="f">Sheet2!$A$4</definedName>
+    <definedName name="k">Sheet2!$C$4</definedName>
     <definedName name="new_p">Sheet1!$K$1</definedName>
     <definedName name="new_x">Sheet1!$I$1</definedName>
     <definedName name="p">Sheet1!$D$1</definedName>
+    <definedName name="s">Sheet2!$G$7</definedName>
+    <definedName name="sigma">Sheet2!$B$4</definedName>
+    <definedName name="t">Sheet2!$D$4</definedName>
     <definedName name="x">Sheet1!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>x</t>
   </si>
@@ -62,6 +72,30 @@
   </si>
   <si>
     <t>new_p</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>vega</t>
+  </si>
+  <si>
+    <t>d_2</t>
+  </si>
+  <si>
+    <t>d_1</t>
   </si>
 </sst>
 </file>
@@ -416,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D2196C-281A-4D92-B5DB-BC2EB4A083E0}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -949,4 +983,100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE961E30-1729-4AB3-8EF8-B37E8CA8D2CC}">
+  <dimension ref="A3:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <f>_xll.XLL.BLACK.PUT(f,sigma,k,t)</f>
+        <v>3.987761167674492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,sigma,k, t)</f>
+        <v>1.0008810935761628E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <f>sigma*SQRT(t)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <f>-(s*s/2+LN(k/f))/s</f>
+        <v>-5.000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <f>d_2+s</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <f>f*_xll.XLL.NORMAL.PDF(d_1)*t</f>
+        <v>9.9610978523691003</v>
+      </c>
+      <c r="G11">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H3,100,0.25)</f>
+        <v>0.19995834570030632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>